--- a/mythril/0.24.7_smartbugs-curated/0.24.7_mythril_smartbugs-curatedresult_dasp.xlsx
+++ b/mythril/0.24.7_smartbugs-curated/0.24.7_mythril_smartbugs-curatedresult_dasp.xlsx
@@ -493,14 +493,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>phishable.sol.json</t>
+          <t>integer_overflow_add.sol.json</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_add.sol.json</t>
+          <t>overflow_simple_add.sol.json</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -573,14 +573,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>list_dos.sol.json</t>
+          <t>arbitrary_location_write_simple.sol.json</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -613,14 +613,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>overflow_single_tx.sol.json</t>
+          <t>auction.sol.json</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>lottery.sol.json</t>
+          <t>crypto_roulette.sol.json</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -693,11 +693,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>simple_dao.sol.json</t>
+          <t>etherstore.sol.json</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>reentrancy_simple.sol.json</t>
+          <t>ether_lotto.sol.json</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -746,25 +746,25 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -773,11 +773,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>governmental_survey.sol.json</t>
+          <t>eth_tx_order_dependence_minimal.sol.json</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -813,20 +813,20 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_multitx_multifunc_feasible.sol.json</t>
+          <t>FibonacciBalance.sol.json</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>smart_billions.sol.json</t>
+          <t>governmental_survey.sol.json</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -866,13 +866,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -893,14 +893,14 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_multitx_onefunc_feasible.sol.json</t>
+          <t>guess_the_random_number.sol.json</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>reentrancy_dao.sol.json</t>
+          <t>incorrect_constructor_name1.sol.json</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>auction.sol.json</t>
+          <t>incorrect_constructor_name2.sol.json</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1013,11 +1013,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>simple_suicide.sol.json</t>
+          <t>incorrect_constructor_name3.sol.json</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1053,20 +1053,20 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FibonacciBalance.sol.json</t>
+          <t>integer_overflow_1.sol.json</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1093,14 +1093,14 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>mycontract.sol.json</t>
+          <t>overflow_single_tx.sol.json</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1133,11 +1133,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>modifier_reentrancy.sol.json</t>
+          <t>phishable.sol.json</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>lotto.sol.json</t>
+          <t>proxy.sol.json</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>king_of_the_ether_throne.sol.json</t>
+          <t>reentrancy_dao.sol.json</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>crypto_roulette.sol.json</t>
+          <t>reentrancy_simple.sol.json</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1333,11 +1333,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>proxy.sol.json</t>
+          <t>roulette.sol.json</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1373,14 +1373,14 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>spank_chain_payment.sol.json</t>
+          <t>rubixi.sol.json</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1413,14 +1413,14 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>old_blockhash.sol.json</t>
+          <t>short_address_example.sol.json</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1453,11 +1453,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>unchecked_return_value.sol.json</t>
+          <t>simple_dao.sol.json</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1493,11 +1493,11 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>lucky_doubler.sol.json</t>
+          <t>simple_suicide.sol.json</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name1.sol.json</t>
+          <t>smart_billions.sol.json</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1573,14 +1573,14 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name2.sol.json</t>
+          <t>spank_chain_payment.sol.json</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>etherstore.sol.json</t>
+          <t>timelock.sol.json</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>wallet_03_wrong_constructor.sol.json</t>
+          <t>unchecked_return_value.sol.json</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>short_address_example.sol.json</t>
+          <t>wallet_02_refund_nosub.sol.json</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1773,11 +1773,11 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>mapping_write.sol.json</t>
+          <t>wallet_03_wrong_constructor.sol.json</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -1813,14 +1813,14 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>arbitrary_location_write_simple.sol.json</t>
+          <t>wallet_04_confused_sign.sol.json</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -1853,14 +1853,14 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ether_lotto.sol.json</t>
+          <t>integer_overflow_mapping_sym_1.sol.json</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1893,14 +1893,14 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name3.sol.json</t>
+          <t>integer_overflow_minimal.sol.json</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_1.sol.json</t>
+          <t>integer_overflow_mul.sol.json</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1973,14 +1973,14 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>wallet_02_refund_nosub.sol.json</t>
+          <t>integer_overflow_multitx_multifunc_feasible.sol.json</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2013,14 +2013,14 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>roulette.sol.json</t>
+          <t>integer_overflow_multitx_onefunc_feasible.sol.json</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2038,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2053,14 +2053,14 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_minimal.sol.json</t>
+          <t>king_of_the_ether_throne.sol.json</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2093,11 +2093,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>multiowned_vulnerable.sol.json</t>
+          <t>list_dos.sol.json</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2133,11 +2133,11 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>eth_tx_order_dependence_minimal.sol.json</t>
+          <t>lottery.sol.json</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2173,14 +2173,14 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>overflow_simple_add.sol.json</t>
+          <t>lotto.sol.json</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>timelock.sol.json</t>
+          <t>lucky_doubler.sol.json</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2253,11 +2253,11 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>odds_and_evens.sol.json</t>
+          <t>mapping_write.sol.json</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2293,20 +2293,20 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_mapping_sym_1.sol.json</t>
+          <t>modifier_reentrancy.sol.json</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>guess_the_random_number.sol.json</t>
+          <t>multiowned_vulnerable.sol.json</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2373,11 +2373,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>rubixi.sol.json</t>
+          <t>mycontract.sol.json</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2413,14 +2413,14 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>wallet_04_confused_sign.sol.json</t>
+          <t>odds_and_evens.sol.json</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2453,11 +2453,11 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_mul.sol.json</t>
+          <t>old_blockhash.sol.json</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
